--- a/system_storage/history/programme/BCS-April-2023 S5.xlsx
+++ b/system_storage/history/programme/BCS-April-2023 S5.xlsx
@@ -93,16 +93,21 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>SEG2202-G2-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC3206-G1-Lecture
+(Amanda Song Cheen)
+Uni Lecture Theatre 1</t>
+  </si>
+  <si>
     <t>SEG2202-G3-Practical
 (Foo Jinny)
 UC3-3</t>
   </si>
   <si>
-    <t>CSC3206-G1-Lecture
-(Amanda Song Cheen)
-Uni Lecture Theatre 1</t>
-  </si>
-  <si>
     <t>CSC3206-G1-Practical
 (Amanda Song Cheen)
 UE2-16</t>
@@ -121,11 +126,6 @@
 UE2-16</t>
   </si>
   <si>
-    <t>SEG2202-G2-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
     <t>CSC3024-G3-Practical
 (Nurul Aiman Adbdul Rahim)
 UE2-16</t>
@@ -178,7 +178,7 @@
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.93%</t>
+    <t>98.95%</t>
   </si>
 </sst>
 </file>
@@ -328,7 +328,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4921875" customWidth="true" bestFit="true"/>
@@ -433,7 +433,7 @@
     </row>
     <row r="3" ht="62.4" customHeight="true">
       <c r="A3" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="5">
         <v>25</v>
@@ -441,30 +441,30 @@
       <c r="F3" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="P3" t="s" s="5">
+      <c r="N3" t="s" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
-      <c r="A4" t="s" s="1">
+      <c r="P4" t="s" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="A5" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="B4" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s" s="5">
+      <c r="B5" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="J4" t="s" s="5">
+      <c r="F5" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="R4" t="s" s="5">
+      <c r="R5" t="s" s="5">
         <v>33</v>
-      </c>
-    </row>
-    <row r="5" ht="62.4" customHeight="true">
-      <c r="G5" t="s" s="5">
-        <v>31</v>
       </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
@@ -509,13 +509,13 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="R5:U5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
